--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2801999.075728728</v>
+        <v>2799746.996017521</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>79.13824467254693</v>
+        <v>149.3482793282674</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>61.05801487789157</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>247.1739756086729</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.45354938846059</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0491056167754</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.41622830191605</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.0516891092285</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>296.6412606371761</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>71.68269007697734</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>28.45717227720763</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.155902292902293</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634822</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560544</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>75.08886905994775</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>115.7063133373732</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>160.5457335223911</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>26.13627195705896</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>53.11937003877912</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>206.5509998577715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2372,10 +2372,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060472</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634788</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>41.0268615655026</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>25.52471385612679</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="H34" t="n">
-        <v>125.285163539206</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>206.5509998577715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>55.52079624060473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,10 +3904,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>89.67992556049217</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>51.36569740310337</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1899.13013587303</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="C2" t="n">
-        <v>1530.167618932618</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.901920325867</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E2" t="n">
         <v>786.1136677276232</v>
@@ -4322,34 +4322,34 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2675.869307912963</v>
+        <v>1921.118538374307</v>
       </c>
       <c r="Y2" t="n">
-        <v>2285.729975937151</v>
+        <v>1530.979206398496</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.619250712236</v>
+        <v>128.1868789351042</v>
       </c>
       <c r="C4" t="n">
-        <v>359.619250712236</v>
+        <v>128.1868789351042</v>
       </c>
       <c r="D4" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T4" t="n">
-        <v>609.2899331452389</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="U4" t="n">
-        <v>609.2899331452389</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="V4" t="n">
-        <v>609.2899331452389</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="W4" t="n">
-        <v>359.619250712236</v>
+        <v>128.1868789351042</v>
       </c>
       <c r="X4" t="n">
-        <v>359.619250712236</v>
+        <v>128.1868789351042</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.619250712236</v>
+        <v>128.1868789351042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1252.833343223197</v>
+        <v>1628.178203944119</v>
       </c>
       <c r="C5" t="n">
-        <v>883.8708262827852</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>525.6051276760347</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>525.6051276760347</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>518.6596269268313</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287319</v>
+        <v>2014.778044008241</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4665,7 +4665,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4674,16 +4674,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>678.4618728343355</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C7" t="n">
-        <v>678.4618728343355</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219998</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.0944266746548</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495403</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C8" t="n">
-        <v>828.1105664881544</v>
+        <v>942.9472709150248</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881544</v>
+        <v>584.6815723082743</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>198.8933197100301</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>191.9478189608266</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>180.9157728462272</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535336</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559525</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031491</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158142</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>479.6639240396553</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>892.142387356359</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S10" t="n">
-        <v>700.4565031831854</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T10" t="n">
-        <v>700.4565031831854</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="U10" t="n">
-        <v>700.4565031831854</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="V10" t="n">
-        <v>700.4565031831854</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="W10" t="n">
-        <v>700.4565031831854</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X10" t="n">
-        <v>700.4565031831854</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y10" t="n">
-        <v>479.6639240396553</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5036,31 +5036,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5084,7 +5084,7 @@
         <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5446,40 +5446,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570812</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832657</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487562</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510503</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854701</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854701</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.96868381774</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919723</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761925</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5543,10 +5543,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516144</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>229.5592957321584</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>244.2098454714573</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101294</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622266</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343197</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219839</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395908</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>302.4540366416804</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>135.2579373565604</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>135.2579373565604</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934014</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,28 +6455,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>740.5562989961526</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>1368.15426255076</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>1920.063992790047</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6710,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1522.21291626627</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2074.122646505557</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P33" t="n">
-        <v>2497.745796000626</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343197</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2570777219839</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>449.3439841395908</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>302.4540366416804</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>302.4540366416804</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2445.740023695907</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397185</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048583</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101294</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122191</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1846595309957</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>943.5102657467545</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892237</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>414.4022433768879</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>266.4891497944948</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,31 +7667,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.15795203868008</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>110.0033420516639</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28624665954615</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294947</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>40.23897475306271</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>112.4047682534897</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>10.85445046951673</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G25" t="n">
-        <v>110.0033420516641</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>40.23897475306292</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>191.8807364711615</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
-        <v>15.00954930701791</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>10.85445046951673</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>55.74112246243908</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>129.6605885985412</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.3159085388</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>760639.3159085391</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085388</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760639.3159085391</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>760639.3159085391</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442553</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="I2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="J2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="K2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442553</v>
-      </c>
       <c r="M2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="N2" t="n">
-        <v>665895.9447442552</v>
-      </c>
       <c r="O2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442548</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.202397277</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.110956245924924e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186728</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186726</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186733</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186733</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186744</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186739</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.9702550045</v>
+        <v>-852915.970255004</v>
       </c>
       <c r="C6" t="n">
-        <v>475828.7754725877</v>
+        <v>475828.7754725878</v>
       </c>
       <c r="D6" t="n">
-        <v>475828.775472588</v>
+        <v>475828.7754725881</v>
       </c>
       <c r="E6" t="n">
-        <v>224534.257071125</v>
+        <v>224499.5191456892</v>
       </c>
       <c r="F6" t="n">
-        <v>549946.7188784808</v>
+        <v>549911.9809530452</v>
       </c>
       <c r="G6" t="n">
-        <v>549946.7188784806</v>
+        <v>549911.9809530452</v>
       </c>
       <c r="H6" t="n">
-        <v>549946.7188784808</v>
+        <v>549911.980953045</v>
       </c>
       <c r="I6" t="n">
-        <v>549946.7188784806</v>
+        <v>549911.9809530451</v>
       </c>
       <c r="J6" t="n">
-        <v>332415.5164812033</v>
+        <v>332380.7785557678</v>
       </c>
       <c r="K6" t="n">
-        <v>549946.7188784807</v>
+        <v>549911.9809530448</v>
       </c>
       <c r="L6" t="n">
-        <v>549946.7188784808</v>
+        <v>549911.980953045</v>
       </c>
       <c r="M6" t="n">
-        <v>464891.6909429686</v>
+        <v>464856.9530175327</v>
       </c>
       <c r="N6" t="n">
-        <v>549946.7188784807</v>
+        <v>549911.980953045</v>
       </c>
       <c r="O6" t="n">
-        <v>549946.7188784807</v>
+        <v>549911.9809530448</v>
       </c>
       <c r="P6" t="n">
-        <v>549946.7188784805</v>
+        <v>549911.9809530447</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26808,10 +26808,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567694e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567694e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>290.5928560059221</v>
+        <v>220.3828213502016</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>87.55745814032079</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>39.34902272791805</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.8193423825469</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>4.872620036678086</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.4157518800212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,19 +27828,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>7.160149096384373</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>68.63163113383143</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>222.9250743103432</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>60.4749803928397</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>284.0559359127106</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,13 +28087,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.607718096583367e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28150,13 +28150,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-4.622602397465861e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-4.783781158639514e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-2.811167515327596e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-2.811167515327596e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.736439038534721e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29284,10 +29284,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29518,13 +29518,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035317</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32546,22 +32546,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32786,28 +32786,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>276.9646925441598</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>191.332301678856</v>
+        <v>416.7024900153336</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709969</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>500.7380235181008</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>165.2255134509767</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.8462560123205</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>211.3773391483997</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>512.9101366533177</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,22 +34211,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>342.8454457931489</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34445,19 +34445,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>398.1179220955534</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060958</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483008</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899013</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36434,28 +36434,28 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>150.1270658774932</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>59.99058959552271</v>
+        <v>285.3607779320004</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876636</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>366.7636161037705</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>31.25110603664647</v>
       </c>
       <c r="Q33" t="n">
-        <v>18.86448192629892</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.39556506237817</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>370.3138922088733</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>205.0040068187899</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38093,19 +38093,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>259.5635423156792</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
